--- a/server/seeds/services.xlsx
+++ b/server/seeds/services.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>标题</t>
+  </si>
+  <si>
+    <t>积分</t>
   </si>
   <si>
     <t>排序</t>
@@ -1093,8 +1096,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1422,26 +1428,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.2232142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7767857142857" customWidth="1"/>
-    <col min="3" max="3" width="94.6428571428571" customWidth="1"/>
-    <col min="4" max="4" width="21.8660714285714" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7767857142857" customWidth="1"/>
+    <col min="4" max="4" width="102.526785714286" customWidth="1"/>
+    <col min="5" max="5" width="21.8660714285714" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:5">
+    <row r="1" ht="13" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1450,172 +1457,202 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="40.05" customHeight="1" spans="1:5">
+    <row r="2" ht="40.05" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>36</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="10" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41</v>
+      </c>
+      <c r="C11">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>37</v>
@@ -1623,50 +1660,59 @@
       <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" ht="40.05" customHeight="1" spans="1:5">
+    <row r="12" ht="40.05" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="13" ht="40.05" customHeight="1" spans="1:5">
+    <row r="13" ht="40.05" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" ht="40.05" customHeight="1" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
         <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -1674,28 +1720,34 @@
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="15" ht="40.05" customHeight="1" spans="1:5">
+    <row r="15" ht="40.05" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://ptomntpm6.bkt.clouddn.com/notices/1-1.jpg&#10;为纪念福利彩票双色球上市15周年和2018年双色球10亿元派奖活动，中国福利彩票发行管理中心组织开展“双色球与福彩公益人‘益路同行’ 活动”。本次活动以“双色球益路同行”为主题，以“走进福彩公益新时代”为口号，涵盖公益文化、公益贡献个人、绿色环保公益、运动健康公益四个领域，从福彩人的角度传播福彩公益品牌。&#10;&#10;一、活动内容和规则：&#10;&#10;本活动由中福彩中心及媒体人代表从全国各省福彩报名人员中选出30位福彩双色球公益人，其中甘肃省兰州市被选中1位。活动启动后，每位公益人分别代表一个健步走战队，活动参与者进入活动页面即可加入一个战队，将自己的健步里程，捐赠到战队中，并将活动对外传播，拉更多的人加入战队。最终按照战队累积健步里程数排名选出10名最具代表性的公益人物，成为福彩双色球年度公益代表人物。&#10;&#10;二、活动平台：&#10;&#10;活动将在“福彩运动”微信小程序、“福彩乐透”APP两个平台同时开展，并将在新华网搭建的PC端平台展示。&#10;&#10;三、活动时间：&#10;&#10;2018年11月26日至12月3日，共8天。&#10;&#10;四、活动流程和抽奖：&#10;&#10;1、查看福彩公益人资料。（甘肃战队：姓名、宣言及个人事迹等）&#10;&#10;2、选定加入战队，浏览公益人资料。&#10;&#10;3、给自己战队捐步数。加入公益人战队后，点击捐步，即为选中的公益人进行捐步，捐步后可参与抽奖。&#10;&#10;4、战队参与人根据页面提示填写个人手机号码，作为奖品发放唯一凭证，便于通知领奖。&#10;&#10;五、活动奖品：&#10;&#10;一等奖： 华为p20手机 14部&#10;&#10;二等奖： 100元话费 42 个&#10;&#10;三等奖： 50元话费 420 个&#10;&#10;四等奖： 30元话费 700 个&#10;&#10;六、活动要求：&#10;&#10;福彩中心和中福在线销售厅员工（包括县区销售厅）、各投注站业主销售员、刮刮乐配送员及广大彩民等均可参与。&#10;&#10;兰州市福利彩票发行中心&#10;&#10;2018年11月26日"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://ptomntpm6.bkt.clouddn.com/notices/3-1.jpeg&#10;6月7日上午，“文明阳城 与爱同行”2019年爱心送考大型公益活动在府前广场正式启动。副县长郭向阳出席启动仪式。&#10;&#10;启动仪式现场，来自我县各出租车公司和社会各界的爱心送考车整装待发，每辆爱心送考车在前挡风玻璃或车身侧面贴上了“爱心送考”的字样标识，反光镜悬挂绿丝带，准备前往县城各住所接送高考考生，全力服务考生。 &#10;&#10;对于爱心人士来说，关心考生就像关心自己的孩子一样，通过无偿服务奉献，传递着向上向善的社会正能量。&#10;&#10;爱心助考活动中，北京能源阳城加油站也心系广大莘莘学子，积极加入爱心助考的行列，在往年工作的基础上，进一步完善爱心服务，开设了高考加油绿色通道，为180多辆爱心送考车免费赠送80公里里程的油料，确保考生顺利参加考试。&#10;&#10;据了解今年参加送考活动的共有来自社会各界的180多辆“爱心送考车”，考生可凭准考证免费乘坐，一名家长可免费随行，“爱心送考车”随机搭载考生，途经临时交通管制地点时，交警可优先指挥放行，确保安全、准时、准确地将考生送到考场，考生考试结束后，可免费乘坐“爱心送考车”返家。"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://ptomntpm6.bkt.clouddn.com/notices/1-1.jpg&#10;为纪念福利彩票双色球上市15周年和2018年双色球10亿元派奖活动，中国福利彩票发行管理中心组织开展“双色球与福彩公益人‘益路同行’ 活动”。本次活动以“双色球益路同行”为主题，以“走进福彩公益新时代”为口号，涵盖公益文化、公益贡献个人、绿色环保公益、运动健康公益四个领域，从福彩人的角度传播福彩公益品牌。&#10;&#10;一、活动内容和规则：&#10;&#10;本活动由中福彩中心及媒体人代表从全国各省福彩报名人员中选出30位福彩双色球公益人，其中甘肃省兰州市被选中1位。活动启动后，每位公益人分别代表一个健步走战队，活动参与者进入活动页面即可加入一个战队，将自己的健步里程，捐赠到战队中，并将活动对外传播，拉更多的人加入战队。最终按照战队累积健步里程数排名选出10名最具代表性的公益人物，成为福彩双色球年度公益代表人物。&#10;&#10;二、活动平台：&#10;&#10;活动将在“福彩运动”微信小程序、“福彩乐透”APP两个平台同时开展，并将在新华网搭建的PC端平台展示。&#10;&#10;三、活动时间：&#10;&#10;2018年11月26日至12月3日，共8天。&#10;&#10;四、活动流程和抽奖：&#10;&#10;1、查看福彩公益人资料。（甘肃战队：姓名、宣言及个人事迹等）&#10;&#10;2、选定加入战队，浏览公益人资料。&#10;&#10;3、给自己战队捐步数。加入公益人战队后，点击捐步，即为选中的公益人进行捐步，捐步后可参与抽奖。&#10;&#10;4、战队参与人根据页面提示填写个人手机号码，作为奖品发放唯一凭证，便于通知领奖。&#10;&#10;五、活动奖品：&#10;&#10;一等奖： 华为p20手机 14部&#10;&#10;二等奖： 100元话费 42 个&#10;&#10;三等奖： 50元话费 420 个&#10;&#10;四等奖： 30元话费 700 个&#10;&#10;六、活动要求：&#10;&#10;福彩中心和中福在线销售厅员工（包括县区销售厅）、各投注站业主销售员、刮刮乐配送员及广大彩民等均可参与。&#10;&#10;兰州市福利彩票发行中心&#10;&#10;2018年11月26日"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://ptomntpm6.bkt.clouddn.com/notices/3-1.jpeg&#10;6月7日上午，“文明阳城 与爱同行”2019年爱心送考大型公益活动在府前广场正式启动。副县长郭向阳出席启动仪式。&#10;&#10;启动仪式现场，来自我县各出租车公司和社会各界的爱心送考车整装待发，每辆爱心送考车在前挡风玻璃或车身侧面贴上了“爱心送考”的字样标识，反光镜悬挂绿丝带，准备前往县城各住所接送高考考生，全力服务考生。 &#10;&#10;对于爱心人士来说，关心考生就像关心自己的孩子一样，通过无偿服务奉献，传递着向上向善的社会正能量。&#10;&#10;爱心助考活动中，北京能源阳城加油站也心系广大莘莘学子，积极加入爱心助考的行列，在往年工作的基础上，进一步完善爱心服务，开设了高考加油绿色通道，为180多辆爱心送考车免费赠送80公里里程的油料，确保考生顺利参加考试。&#10;&#10;据了解今年参加送考活动的共有来自社会各界的180多辆“爱心送考车”，考生可凭准考证免费乘坐，一名家长可免费随行，“爱心送考车”随机搭载考生，途经临时交通管制地点时，交警可优先指挥放行，确保安全、准时、准确地将考生送到考场，考生考试结束后，可免费乘坐“爱心送考车”返家。"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/server/seeds/services.xlsx
+++ b/server/seeds/services.xlsx
@@ -183,7 +183,7 @@
        地址：北京市朝阳区新源南路京城大厦2301</t>
   </si>
   <si>
-    <t>教育服务提升类</t>
+    <t>教育素质提升类</t>
   </si>
   <si>
     <t>/uploads/images/notices/4-1.jpeg</t>
@@ -504,8 +504,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +542,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -527,9 +557,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,111 +647,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -657,13 +657,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,13 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,151 +825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,21 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,21 +889,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,159 +918,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1431,7 +1428,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -1460,7 +1457,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1474,13 +1471,13 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1500,7 +1497,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1520,7 +1517,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1534,18 +1531,18 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1">
@@ -1554,13 +1551,13 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1574,18 +1571,18 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1">
@@ -1594,18 +1591,18 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
@@ -1614,18 +1611,18 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1">
@@ -1634,18 +1631,18 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1">
@@ -1654,13 +1651,13 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1674,13 +1671,13 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1694,13 +1691,13 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1714,13 +1711,13 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1734,13 +1731,13 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
